--- a/excel_modal/原始输入_Modal-map.xlsx
+++ b/excel_modal/原始输入_Modal-map.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11100" tabRatio="822"/>
+    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="822"/>
   </bookViews>
   <sheets>
     <sheet name="Modal-map" sheetId="44" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>20-30</t>
   </si>
@@ -207,10 +207,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -237,17 +237,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -259,16 +264,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -282,18 +294,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -305,8 +310,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,37 +323,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -366,6 +341,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -373,13 +356,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,7 +387,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,13 +420,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,169 +600,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,15 +768,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -791,16 +782,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -831,6 +822,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -846,26 +855,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -877,151 +877,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1475,19 +1475,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BI27"/>
+  <dimension ref="A1:BI26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D$1:E$1048576"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.4615384615385" customWidth="1"/>
-    <col min="2" max="2" width="6.46153846153846" customWidth="1"/>
-    <col min="3" max="3" width="13.7692307692308" customWidth="1"/>
+    <col min="1" max="1" width="11.4592592592593" customWidth="1"/>
+    <col min="2" max="2" width="6.45925925925926" customWidth="1"/>
+    <col min="3" max="3" width="13.7703703703704" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="12" customHeight="1" spans="1:61">
@@ -1895,9 +1895,11 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="12" customHeight="1" spans="1:61">
       <c r="A9" s="8"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="9" t="s">
-        <v>33</v>
+      <c r="B9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -1920,23 +1922,21 @@
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18"/>
       <c r="AG9" s="22"/>
       <c r="BI9" s="28"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="12" customHeight="1" spans="1:61">
       <c r="A10" s="8"/>
-      <c r="B10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>40</v>
+      <c r="B10" s="6"/>
+      <c r="C10" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -1973,7 +1973,7 @@
       <c r="A11" s="8"/>
       <c r="B11" s="6"/>
       <c r="C11" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -2010,7 +2010,7 @@
       <c r="A12" s="8"/>
       <c r="B12" s="6"/>
       <c r="C12" s="9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -2047,7 +2047,7 @@
       <c r="A13" s="8"/>
       <c r="B13" s="6"/>
       <c r="C13" s="9" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -2084,7 +2084,7 @@
       <c r="A14" s="8"/>
       <c r="B14" s="6"/>
       <c r="C14" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -2121,7 +2121,7 @@
       <c r="A15" s="8"/>
       <c r="B15" s="6"/>
       <c r="C15" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -2156,9 +2156,9 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="12" customHeight="1" spans="1:61">
       <c r="A16" s="8"/>
-      <c r="B16" s="6"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -2168,7 +2168,7 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
+      <c r="L16" s="12"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -2193,9 +2193,11 @@
     </row>
     <row r="17" s="1" customFormat="1" ht="12" customHeight="1" spans="1:61">
       <c r="A17" s="8"/>
-      <c r="B17" s="10"/>
+      <c r="B17" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="C17" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -2205,7 +2207,7 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="12"/>
+      <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -2230,11 +2232,9 @@
     </row>
     <row r="18" s="1" customFormat="1" ht="12" customHeight="1" spans="1:61">
       <c r="A18" s="8"/>
-      <c r="B18" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="B18" s="6"/>
       <c r="C18" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -2271,7 +2271,7 @@
       <c r="A19" s="8"/>
       <c r="B19" s="6"/>
       <c r="C19" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -2308,7 +2308,7 @@
       <c r="A20" s="8"/>
       <c r="B20" s="6"/>
       <c r="C20" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -2345,7 +2345,7 @@
       <c r="A21" s="8"/>
       <c r="B21" s="6"/>
       <c r="C21" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -2382,7 +2382,7 @@
       <c r="A22" s="8"/>
       <c r="B22" s="6"/>
       <c r="C22" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -2419,7 +2419,7 @@
       <c r="A23" s="8"/>
       <c r="B23" s="6"/>
       <c r="C23" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -2456,7 +2456,7 @@
       <c r="A24" s="8"/>
       <c r="B24" s="6"/>
       <c r="C24" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -2493,7 +2493,7 @@
       <c r="A25" s="8"/>
       <c r="B25" s="6"/>
       <c r="C25" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -2526,30 +2526,44 @@
       <c r="AG25" s="22"/>
       <c r="BI25" s="28"/>
     </row>
-    <row r="26" s="1" customFormat="1" ht="12" customHeight="1" spans="1:61">
-      <c r="A26" s="8"/>
-      <c r="B26" s="6"/>
+    <row r="26" s="1" customFormat="1" customHeight="1" spans="1:61">
+      <c r="A26" s="11"/>
+      <c r="B26" s="10"/>
       <c r="C26" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
+      <c r="G26" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
+      <c r="K26" s="12" t="s">
+        <v>59</v>
+      </c>
       <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
+      <c r="M26" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
+      <c r="O26" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="P26" s="12">
+        <v>147</v>
+      </c>
+      <c r="Q26" s="12">
+        <v>152</v>
+      </c>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="14">
+        <v>194</v>
+      </c>
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
@@ -2560,93 +2574,42 @@
       <c r="AC26" s="18"/>
       <c r="AD26" s="18"/>
       <c r="AE26" s="18"/>
-      <c r="AG26" s="22"/>
-      <c r="BI26" s="28"/>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="15" customHeight="1" spans="1:61">
-      <c r="A27" s="11"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="L27" s="7"/>
-      <c r="M27" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="N27" s="7"/>
-      <c r="O27" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="P27" s="12">
-        <v>147</v>
-      </c>
-      <c r="Q27" s="12">
-        <v>152</v>
-      </c>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="14">
-        <v>194</v>
-      </c>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="18"/>
-      <c r="Z27" s="18"/>
-      <c r="AA27" s="18"/>
-      <c r="AB27" s="18"/>
-      <c r="AC27" s="18"/>
-      <c r="AD27" s="18"/>
-      <c r="AE27" s="18"/>
-      <c r="AG27" s="23"/>
-      <c r="AH27" s="24"/>
-      <c r="AI27" s="24"/>
-      <c r="AJ27" s="24"/>
-      <c r="AK27" s="24"/>
-      <c r="AL27" s="24"/>
-      <c r="AM27" s="24"/>
-      <c r="AN27" s="24"/>
-      <c r="AO27" s="24"/>
-      <c r="AP27" s="24"/>
-      <c r="AQ27" s="24"/>
-      <c r="AR27" s="25"/>
-      <c r="AS27" s="26"/>
-      <c r="AT27" s="26"/>
-      <c r="AU27" s="24"/>
-      <c r="AV27" s="24"/>
-      <c r="AW27" s="24"/>
-      <c r="AX27" s="24"/>
-      <c r="AY27" s="24"/>
-      <c r="AZ27" s="24"/>
-      <c r="BA27" s="24"/>
-      <c r="BB27" s="24"/>
-      <c r="BC27" s="24"/>
-      <c r="BD27" s="24"/>
-      <c r="BE27" s="24"/>
-      <c r="BF27" s="24"/>
-      <c r="BG27" s="24"/>
-      <c r="BH27" s="24"/>
-      <c r="BI27" s="29"/>
+      <c r="AG26" s="23"/>
+      <c r="AH26" s="24"/>
+      <c r="AI26" s="24"/>
+      <c r="AJ26" s="24"/>
+      <c r="AK26" s="24"/>
+      <c r="AL26" s="24"/>
+      <c r="AM26" s="24"/>
+      <c r="AN26" s="24"/>
+      <c r="AO26" s="24"/>
+      <c r="AP26" s="24"/>
+      <c r="AQ26" s="24"/>
+      <c r="AR26" s="25"/>
+      <c r="AS26" s="26"/>
+      <c r="AT26" s="26"/>
+      <c r="AU26" s="24"/>
+      <c r="AV26" s="24"/>
+      <c r="AW26" s="24"/>
+      <c r="AX26" s="24"/>
+      <c r="AY26" s="24"/>
+      <c r="AZ26" s="24"/>
+      <c r="BA26" s="24"/>
+      <c r="BB26" s="24"/>
+      <c r="BC26" s="24"/>
+      <c r="BD26" s="24"/>
+      <c r="BE26" s="24"/>
+      <c r="BF26" s="24"/>
+      <c r="BG26" s="24"/>
+      <c r="BH26" s="24"/>
+      <c r="BI26" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A2:A27"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="B18:B27"/>
+    <mergeCell ref="A2:A26"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="B17:B26"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/excel_modal/原始输入_Modal-map.xlsx
+++ b/excel_modal/原始输入_Modal-map.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="822"/>
+    <workbookView windowWidth="20490" windowHeight="7710" tabRatio="822"/>
   </bookViews>
   <sheets>
     <sheet name="Modal-map" sheetId="44" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>20-30</t>
   </si>
@@ -109,12 +109,6 @@
     <t>轮胎</t>
   </si>
   <si>
-    <t>56Y平动</t>
-  </si>
-  <si>
-    <t>222空腔</t>
-  </si>
-  <si>
     <t>动力总成</t>
   </si>
   <si>
@@ -188,18 +182,6 @@
   </si>
   <si>
     <t>声腔</t>
-  </si>
-  <si>
-    <t>52X</t>
-  </si>
-  <si>
-    <t>96.8-2X</t>
-  </si>
-  <si>
-    <t>117-Y</t>
-  </si>
-  <si>
-    <t>140X+Y</t>
   </si>
 </sst>
 </file>
@@ -207,10 +189,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -237,13 +219,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,15 +253,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,41 +306,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,8 +321,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,16 +337,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,23 +359,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,13 +402,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,169 +582,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,38 +597,38 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top/>
       <bottom/>
@@ -654,50 +636,50 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -706,14 +688,14 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right/>
       <top/>
@@ -722,12 +704,12 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
@@ -736,17 +718,17 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -754,7 +736,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top/>
       <bottom/>
@@ -763,61 +745,11 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
@@ -869,6 +801,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -877,151 +859,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="18" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="18" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="22" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="21" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="17" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1029,91 +1011,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="49" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="49" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1308,7 +1290,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1329,9 +1311,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="16200000" scaled="true"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1352,7 +1334,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="16200000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1422,7 +1404,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1448,7 +1430,7 @@
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1480,17 +1462,17 @@
   <dimension ref="A1:BI26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.4592592592593" customWidth="1"/>
-    <col min="2" max="2" width="6.45925925925926" customWidth="1"/>
-    <col min="3" max="3" width="13.7703703703704" customWidth="1"/>
+    <col min="1" max="1" width="11.4583333333333" customWidth="true"/>
+    <col min="2" max="2" width="6.45833333333333" customWidth="true"/>
+    <col min="3" max="3" width="13.7666666666667" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12" customHeight="1" spans="1:61">
+    <row r="1" s="1" customFormat="true" ht="12" customHeight="true" spans="1:61">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="2"/>
@@ -1608,7 +1590,7 @@
       <c r="BH1" s="21"/>
       <c r="BI1" s="27"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="12" customHeight="1" spans="1:61">
+    <row r="2" s="1" customFormat="true" ht="12" customHeight="true" spans="1:61">
       <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
@@ -1621,8 +1603,8 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="12" t="s">
-        <v>31</v>
+      <c r="G2" s="12">
+        <v>56</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -1651,8 +1633,8 @@
         <v>200</v>
       </c>
       <c r="V2" s="7"/>
-      <c r="W2" s="12" t="s">
-        <v>32</v>
+      <c r="W2" s="12">
+        <v>222</v>
       </c>
       <c r="X2" s="12">
         <v>229</v>
@@ -1669,11 +1651,11 @@
       <c r="AG2" s="22"/>
       <c r="BI2" s="28"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="12" customHeight="1" spans="1:61">
+    <row r="3" s="1" customFormat="true" ht="12" customHeight="true" spans="1:61">
       <c r="A3" s="8"/>
       <c r="B3" s="6"/>
       <c r="C3" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -1706,11 +1688,11 @@
       <c r="AG3" s="22"/>
       <c r="BI3" s="28"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="12" customHeight="1" spans="1:61">
+    <row r="4" s="1" customFormat="true" ht="12" customHeight="true" spans="1:61">
       <c r="A4" s="8"/>
       <c r="B4" s="6"/>
       <c r="C4" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -1743,11 +1725,11 @@
       <c r="AG4" s="22"/>
       <c r="BI4" s="28"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="12" customHeight="1" spans="1:61">
+    <row r="5" s="1" customFormat="true" ht="12" customHeight="true" spans="1:61">
       <c r="A5" s="8"/>
       <c r="B5" s="6"/>
       <c r="C5" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -1782,11 +1764,11 @@
       <c r="AG5" s="22"/>
       <c r="BI5" s="28"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="12" customHeight="1" spans="1:61">
+    <row r="6" s="1" customFormat="true" ht="12" customHeight="true" spans="1:61">
       <c r="A6" s="8"/>
       <c r="B6" s="6"/>
       <c r="C6" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -1819,11 +1801,11 @@
       <c r="AG6" s="22"/>
       <c r="BI6" s="28"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="12" customHeight="1" spans="1:61">
+    <row r="7" s="1" customFormat="true" ht="12" customHeight="true" spans="1:61">
       <c r="A7" s="8"/>
       <c r="B7" s="6"/>
       <c r="C7" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -1856,11 +1838,11 @@
       <c r="AG7" s="22"/>
       <c r="BI7" s="28"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="12" customHeight="1" spans="1:61">
+    <row r="8" s="1" customFormat="true" ht="12" customHeight="true" spans="1:61">
       <c r="A8" s="8"/>
       <c r="B8" s="6"/>
       <c r="C8" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -1893,13 +1875,13 @@
       <c r="AG8" s="22"/>
       <c r="BI8" s="28"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="12" customHeight="1" spans="1:61">
+    <row r="9" s="1" customFormat="true" ht="12" customHeight="true" spans="1:61">
       <c r="A9" s="8"/>
       <c r="B9" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -1932,11 +1914,11 @@
       <c r="AG9" s="22"/>
       <c r="BI9" s="28"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="12" customHeight="1" spans="1:61">
+    <row r="10" s="1" customFormat="true" ht="12" customHeight="true" spans="1:61">
       <c r="A10" s="8"/>
       <c r="B10" s="6"/>
       <c r="C10" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -1969,11 +1951,11 @@
       <c r="AG10" s="22"/>
       <c r="BI10" s="28"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="12" customHeight="1" spans="1:61">
+    <row r="11" s="1" customFormat="true" ht="12" customHeight="true" spans="1:61">
       <c r="A11" s="8"/>
       <c r="B11" s="6"/>
       <c r="C11" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -2006,11 +1988,11 @@
       <c r="AG11" s="22"/>
       <c r="BI11" s="28"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="12" customHeight="1" spans="1:61">
+    <row r="12" s="1" customFormat="true" ht="12" customHeight="true" spans="1:61">
       <c r="A12" s="8"/>
       <c r="B12" s="6"/>
       <c r="C12" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -2043,11 +2025,11 @@
       <c r="AG12" s="22"/>
       <c r="BI12" s="28"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="12" customHeight="1" spans="1:61">
+    <row r="13" s="1" customFormat="true" ht="12" customHeight="true" spans="1:61">
       <c r="A13" s="8"/>
       <c r="B13" s="6"/>
       <c r="C13" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -2080,11 +2062,11 @@
       <c r="AG13" s="22"/>
       <c r="BI13" s="28"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="12" customHeight="1" spans="1:61">
+    <row r="14" s="1" customFormat="true" ht="12" customHeight="true" spans="1:61">
       <c r="A14" s="8"/>
       <c r="B14" s="6"/>
       <c r="C14" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -2117,11 +2099,11 @@
       <c r="AG14" s="22"/>
       <c r="BI14" s="28"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="12" customHeight="1" spans="1:61">
+    <row r="15" s="1" customFormat="true" ht="12" customHeight="true" spans="1:61">
       <c r="A15" s="8"/>
       <c r="B15" s="6"/>
       <c r="C15" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -2154,11 +2136,11 @@
       <c r="AG15" s="22"/>
       <c r="BI15" s="28"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="12" customHeight="1" spans="1:61">
+    <row r="16" s="1" customFormat="true" ht="12" customHeight="true" spans="1:61">
       <c r="A16" s="8"/>
       <c r="B16" s="10"/>
       <c r="C16" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -2191,13 +2173,13 @@
       <c r="AG16" s="22"/>
       <c r="BI16" s="28"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="12" customHeight="1" spans="1:61">
+    <row r="17" s="1" customFormat="true" ht="12" customHeight="true" spans="1:61">
       <c r="A17" s="8"/>
       <c r="B17" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -2230,11 +2212,11 @@
       <c r="AG17" s="22"/>
       <c r="BI17" s="28"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="12" customHeight="1" spans="1:61">
+    <row r="18" s="1" customFormat="true" ht="12" customHeight="true" spans="1:61">
       <c r="A18" s="8"/>
       <c r="B18" s="6"/>
       <c r="C18" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -2267,11 +2249,11 @@
       <c r="AG18" s="22"/>
       <c r="BI18" s="28"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="12" customHeight="1" spans="1:61">
+    <row r="19" s="1" customFormat="true" ht="12" customHeight="true" spans="1:61">
       <c r="A19" s="8"/>
       <c r="B19" s="6"/>
       <c r="C19" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -2304,11 +2286,11 @@
       <c r="AG19" s="22"/>
       <c r="BI19" s="28"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="12" customHeight="1" spans="1:61">
+    <row r="20" s="1" customFormat="true" ht="12" customHeight="true" spans="1:61">
       <c r="A20" s="8"/>
       <c r="B20" s="6"/>
       <c r="C20" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -2341,11 +2323,11 @@
       <c r="AG20" s="22"/>
       <c r="BI20" s="28"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="12" customHeight="1" spans="1:61">
+    <row r="21" s="1" customFormat="true" ht="12" customHeight="true" spans="1:61">
       <c r="A21" s="8"/>
       <c r="B21" s="6"/>
       <c r="C21" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -2378,11 +2360,11 @@
       <c r="AG21" s="22"/>
       <c r="BI21" s="28"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="12" customHeight="1" spans="1:61">
+    <row r="22" s="1" customFormat="true" ht="12" customHeight="true" spans="1:61">
       <c r="A22" s="8"/>
       <c r="B22" s="6"/>
       <c r="C22" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -2415,11 +2397,11 @@
       <c r="AG22" s="22"/>
       <c r="BI22" s="28"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="12" customHeight="1" spans="1:61">
+    <row r="23" s="1" customFormat="true" ht="12" customHeight="true" spans="1:61">
       <c r="A23" s="8"/>
       <c r="B23" s="6"/>
       <c r="C23" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -2452,11 +2434,11 @@
       <c r="AG23" s="22"/>
       <c r="BI23" s="28"/>
     </row>
-    <row r="24" s="1" customFormat="1" ht="12" customHeight="1" spans="1:61">
+    <row r="24" s="1" customFormat="true" ht="12" customHeight="true" spans="1:61">
       <c r="A24" s="8"/>
       <c r="B24" s="6"/>
       <c r="C24" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -2489,11 +2471,11 @@
       <c r="AG24" s="22"/>
       <c r="BI24" s="28"/>
     </row>
-    <row r="25" s="1" customFormat="1" ht="12" customHeight="1" spans="1:61">
+    <row r="25" s="1" customFormat="true" ht="12" customHeight="true" spans="1:61">
       <c r="A25" s="8"/>
       <c r="B25" s="6"/>
       <c r="C25" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -2526,31 +2508,31 @@
       <c r="AG25" s="22"/>
       <c r="BI25" s="28"/>
     </row>
-    <row r="26" s="1" customFormat="1" customHeight="1" spans="1:61">
+    <row r="26" s="1" customFormat="true" customHeight="true" spans="1:61">
       <c r="A26" s="11"/>
       <c r="B26" s="10"/>
       <c r="C26" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="12" t="s">
-        <v>58</v>
+      <c r="G26" s="12">
+        <v>52</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="12" t="s">
-        <v>59</v>
+      <c r="K26" s="12">
+        <v>96.8</v>
       </c>
       <c r="L26" s="7"/>
-      <c r="M26" s="12" t="s">
-        <v>60</v>
+      <c r="M26" s="12">
+        <v>117</v>
       </c>
       <c r="N26" s="7"/>
-      <c r="O26" s="12" t="s">
-        <v>61</v>
+      <c r="O26" s="12">
+        <v>140</v>
       </c>
       <c r="P26" s="12">
         <v>147</v>

--- a/excel_modal/原始输入_Modal-map.xlsx
+++ b/excel_modal/原始输入_Modal-map.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7710" tabRatio="822"/>
+    <workbookView windowWidth="20490" windowHeight="7695" tabRatio="822"/>
   </bookViews>
   <sheets>
     <sheet name="Modal-map" sheetId="44" r:id="rId1"/>
@@ -189,12 +189,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,40 +214,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,8 +235,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,6 +286,44 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -298,24 +342,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,50 +364,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="36">
@@ -408,186 +402,186 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="23">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -674,91 +668,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="true"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="true"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="true"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="true"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="true"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="true"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="true"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="true"/>
-      </right>
-      <top style="thin">
-        <color auto="true"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="true"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="true"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="true"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,7 +681,48 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,49 +760,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -859,155 +773,155 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="18" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="18" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="22" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="21" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="17" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="12" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1063,39 +977,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="49" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="49" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1459,10 +1340,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BI26"/>
+  <dimension ref="A1:AE26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1472,7 +1353,7 @@
     <col min="3" max="3" width="13.7666666666667" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12" customHeight="true" spans="1:61">
+    <row r="1" s="1" customFormat="true" ht="12" customHeight="true" spans="1:31">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="2"/>
@@ -1560,37 +1441,8 @@
       <c r="AE1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="20"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="21"/>
-      <c r="AO1" s="21"/>
-      <c r="AP1" s="21"/>
-      <c r="AQ1" s="21"/>
-      <c r="AR1" s="21"/>
-      <c r="AS1" s="21"/>
-      <c r="AT1" s="21"/>
-      <c r="AU1" s="21"/>
-      <c r="AV1" s="21"/>
-      <c r="AW1" s="21"/>
-      <c r="AX1" s="21"/>
-      <c r="AY1" s="21"/>
-      <c r="AZ1" s="21"/>
-      <c r="BA1" s="21"/>
-      <c r="BB1" s="21"/>
-      <c r="BC1" s="21"/>
-      <c r="BD1" s="21"/>
-      <c r="BE1" s="21"/>
-      <c r="BF1" s="21"/>
-      <c r="BG1" s="21"/>
-      <c r="BH1" s="21"/>
-      <c r="BI1" s="27"/>
-    </row>
-    <row r="2" s="1" customFormat="true" ht="12" customHeight="true" spans="1:61">
+    </row>
+    <row r="2" s="1" customFormat="true" ht="12" customHeight="true" spans="1:31">
       <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
@@ -1648,10 +1500,8 @@
       <c r="AC2" s="17"/>
       <c r="AD2" s="17"/>
       <c r="AE2" s="17"/>
-      <c r="AG2" s="22"/>
-      <c r="BI2" s="28"/>
-    </row>
-    <row r="3" s="1" customFormat="true" ht="12" customHeight="true" spans="1:61">
+    </row>
+    <row r="3" s="1" customFormat="true" ht="12" customHeight="true" spans="1:31">
       <c r="A3" s="8"/>
       <c r="B3" s="6"/>
       <c r="C3" s="9" t="s">
@@ -1685,10 +1535,8 @@
       <c r="AC3" s="7"/>
       <c r="AD3" s="7"/>
       <c r="AE3" s="7"/>
-      <c r="AG3" s="22"/>
-      <c r="BI3" s="28"/>
-    </row>
-    <row r="4" s="1" customFormat="true" ht="12" customHeight="true" spans="1:61">
+    </row>
+    <row r="4" s="1" customFormat="true" ht="12" customHeight="true" spans="1:31">
       <c r="A4" s="8"/>
       <c r="B4" s="6"/>
       <c r="C4" s="5" t="s">
@@ -1722,10 +1570,8 @@
       <c r="AC4" s="18"/>
       <c r="AD4" s="18"/>
       <c r="AE4" s="18"/>
-      <c r="AG4" s="22"/>
-      <c r="BI4" s="28"/>
-    </row>
-    <row r="5" s="1" customFormat="true" ht="12" customHeight="true" spans="1:61">
+    </row>
+    <row r="5" s="1" customFormat="true" ht="12" customHeight="true" spans="1:31">
       <c r="A5" s="8"/>
       <c r="B5" s="6"/>
       <c r="C5" s="9" t="s">
@@ -1761,10 +1607,8 @@
       <c r="AC5" s="18"/>
       <c r="AD5" s="18"/>
       <c r="AE5" s="18"/>
-      <c r="AG5" s="22"/>
-      <c r="BI5" s="28"/>
-    </row>
-    <row r="6" s="1" customFormat="true" ht="12" customHeight="true" spans="1:61">
+    </row>
+    <row r="6" s="1" customFormat="true" ht="12" customHeight="true" spans="1:31">
       <c r="A6" s="8"/>
       <c r="B6" s="6"/>
       <c r="C6" s="9" t="s">
@@ -1798,10 +1642,8 @@
       <c r="AC6" s="18"/>
       <c r="AD6" s="18"/>
       <c r="AE6" s="18"/>
-      <c r="AG6" s="22"/>
-      <c r="BI6" s="28"/>
-    </row>
-    <row r="7" s="1" customFormat="true" ht="12" customHeight="true" spans="1:61">
+    </row>
+    <row r="7" s="1" customFormat="true" ht="12" customHeight="true" spans="1:31">
       <c r="A7" s="8"/>
       <c r="B7" s="6"/>
       <c r="C7" s="9" t="s">
@@ -1835,10 +1677,8 @@
       <c r="AC7" s="18"/>
       <c r="AD7" s="18"/>
       <c r="AE7" s="18"/>
-      <c r="AG7" s="22"/>
-      <c r="BI7" s="28"/>
-    </row>
-    <row r="8" s="1" customFormat="true" ht="12" customHeight="true" spans="1:61">
+    </row>
+    <row r="8" s="1" customFormat="true" ht="12" customHeight="true" spans="1:31">
       <c r="A8" s="8"/>
       <c r="B8" s="6"/>
       <c r="C8" s="9" t="s">
@@ -1872,10 +1712,8 @@
       <c r="AC8" s="18"/>
       <c r="AD8" s="18"/>
       <c r="AE8" s="18"/>
-      <c r="AG8" s="22"/>
-      <c r="BI8" s="28"/>
-    </row>
-    <row r="9" s="1" customFormat="true" ht="12" customHeight="true" spans="1:61">
+    </row>
+    <row r="9" s="1" customFormat="true" ht="12" customHeight="true" spans="1:31">
       <c r="A9" s="8"/>
       <c r="B9" s="5" t="s">
         <v>37</v>
@@ -1911,10 +1749,8 @@
       <c r="AC9" s="18"/>
       <c r="AD9" s="18"/>
       <c r="AE9" s="18"/>
-      <c r="AG9" s="22"/>
-      <c r="BI9" s="28"/>
-    </row>
-    <row r="10" s="1" customFormat="true" ht="12" customHeight="true" spans="1:61">
+    </row>
+    <row r="10" s="1" customFormat="true" ht="12" customHeight="true" spans="1:31">
       <c r="A10" s="8"/>
       <c r="B10" s="6"/>
       <c r="C10" s="9" t="s">
@@ -1948,10 +1784,8 @@
       <c r="AC10" s="18"/>
       <c r="AD10" s="18"/>
       <c r="AE10" s="18"/>
-      <c r="AG10" s="22"/>
-      <c r="BI10" s="28"/>
-    </row>
-    <row r="11" s="1" customFormat="true" ht="12" customHeight="true" spans="1:61">
+    </row>
+    <row r="11" s="1" customFormat="true" ht="12" customHeight="true" spans="1:31">
       <c r="A11" s="8"/>
       <c r="B11" s="6"/>
       <c r="C11" s="9" t="s">
@@ -1985,10 +1819,8 @@
       <c r="AC11" s="18"/>
       <c r="AD11" s="18"/>
       <c r="AE11" s="18"/>
-      <c r="AG11" s="22"/>
-      <c r="BI11" s="28"/>
-    </row>
-    <row r="12" s="1" customFormat="true" ht="12" customHeight="true" spans="1:61">
+    </row>
+    <row r="12" s="1" customFormat="true" ht="12" customHeight="true" spans="1:31">
       <c r="A12" s="8"/>
       <c r="B12" s="6"/>
       <c r="C12" s="9" t="s">
@@ -2022,10 +1854,8 @@
       <c r="AC12" s="18"/>
       <c r="AD12" s="18"/>
       <c r="AE12" s="18"/>
-      <c r="AG12" s="22"/>
-      <c r="BI12" s="28"/>
-    </row>
-    <row r="13" s="1" customFormat="true" ht="12" customHeight="true" spans="1:61">
+    </row>
+    <row r="13" s="1" customFormat="true" ht="12" customHeight="true" spans="1:31">
       <c r="A13" s="8"/>
       <c r="B13" s="6"/>
       <c r="C13" s="9" t="s">
@@ -2059,10 +1889,8 @@
       <c r="AC13" s="18"/>
       <c r="AD13" s="18"/>
       <c r="AE13" s="18"/>
-      <c r="AG13" s="22"/>
-      <c r="BI13" s="28"/>
-    </row>
-    <row r="14" s="1" customFormat="true" ht="12" customHeight="true" spans="1:61">
+    </row>
+    <row r="14" s="1" customFormat="true" ht="12" customHeight="true" spans="1:31">
       <c r="A14" s="8"/>
       <c r="B14" s="6"/>
       <c r="C14" s="9" t="s">
@@ -2096,10 +1924,8 @@
       <c r="AC14" s="18"/>
       <c r="AD14" s="18"/>
       <c r="AE14" s="18"/>
-      <c r="AG14" s="22"/>
-      <c r="BI14" s="28"/>
-    </row>
-    <row r="15" s="1" customFormat="true" ht="12" customHeight="true" spans="1:61">
+    </row>
+    <row r="15" s="1" customFormat="true" ht="12" customHeight="true" spans="1:31">
       <c r="A15" s="8"/>
       <c r="B15" s="6"/>
       <c r="C15" s="9" t="s">
@@ -2133,10 +1959,8 @@
       <c r="AC15" s="18"/>
       <c r="AD15" s="18"/>
       <c r="AE15" s="18"/>
-      <c r="AG15" s="22"/>
-      <c r="BI15" s="28"/>
-    </row>
-    <row r="16" s="1" customFormat="true" ht="12" customHeight="true" spans="1:61">
+    </row>
+    <row r="16" s="1" customFormat="true" ht="12" customHeight="true" spans="1:31">
       <c r="A16" s="8"/>
       <c r="B16" s="10"/>
       <c r="C16" s="9" t="s">
@@ -2170,10 +1994,8 @@
       <c r="AC16" s="18"/>
       <c r="AD16" s="18"/>
       <c r="AE16" s="18"/>
-      <c r="AG16" s="22"/>
-      <c r="BI16" s="28"/>
-    </row>
-    <row r="17" s="1" customFormat="true" ht="12" customHeight="true" spans="1:61">
+    </row>
+    <row r="17" s="1" customFormat="true" ht="12" customHeight="true" spans="1:31">
       <c r="A17" s="8"/>
       <c r="B17" s="5" t="s">
         <v>45</v>
@@ -2209,10 +2031,8 @@
       <c r="AC17" s="18"/>
       <c r="AD17" s="18"/>
       <c r="AE17" s="18"/>
-      <c r="AG17" s="22"/>
-      <c r="BI17" s="28"/>
-    </row>
-    <row r="18" s="1" customFormat="true" ht="12" customHeight="true" spans="1:61">
+    </row>
+    <row r="18" s="1" customFormat="true" ht="12" customHeight="true" spans="1:31">
       <c r="A18" s="8"/>
       <c r="B18" s="6"/>
       <c r="C18" s="9" t="s">
@@ -2246,10 +2066,8 @@
       <c r="AC18" s="18"/>
       <c r="AD18" s="18"/>
       <c r="AE18" s="18"/>
-      <c r="AG18" s="22"/>
-      <c r="BI18" s="28"/>
-    </row>
-    <row r="19" s="1" customFormat="true" ht="12" customHeight="true" spans="1:61">
+    </row>
+    <row r="19" s="1" customFormat="true" ht="12" customHeight="true" spans="1:31">
       <c r="A19" s="8"/>
       <c r="B19" s="6"/>
       <c r="C19" s="9" t="s">
@@ -2283,10 +2101,8 @@
       <c r="AC19" s="18"/>
       <c r="AD19" s="18"/>
       <c r="AE19" s="18"/>
-      <c r="AG19" s="22"/>
-      <c r="BI19" s="28"/>
-    </row>
-    <row r="20" s="1" customFormat="true" ht="12" customHeight="true" spans="1:61">
+    </row>
+    <row r="20" s="1" customFormat="true" ht="12" customHeight="true" spans="1:31">
       <c r="A20" s="8"/>
       <c r="B20" s="6"/>
       <c r="C20" s="9" t="s">
@@ -2320,10 +2136,8 @@
       <c r="AC20" s="18"/>
       <c r="AD20" s="18"/>
       <c r="AE20" s="18"/>
-      <c r="AG20" s="22"/>
-      <c r="BI20" s="28"/>
-    </row>
-    <row r="21" s="1" customFormat="true" ht="12" customHeight="true" spans="1:61">
+    </row>
+    <row r="21" s="1" customFormat="true" ht="12" customHeight="true" spans="1:31">
       <c r="A21" s="8"/>
       <c r="B21" s="6"/>
       <c r="C21" s="9" t="s">
@@ -2357,10 +2171,8 @@
       <c r="AC21" s="18"/>
       <c r="AD21" s="18"/>
       <c r="AE21" s="18"/>
-      <c r="AG21" s="22"/>
-      <c r="BI21" s="28"/>
-    </row>
-    <row r="22" s="1" customFormat="true" ht="12" customHeight="true" spans="1:61">
+    </row>
+    <row r="22" s="1" customFormat="true" ht="12" customHeight="true" spans="1:31">
       <c r="A22" s="8"/>
       <c r="B22" s="6"/>
       <c r="C22" s="9" t="s">
@@ -2394,10 +2206,8 @@
       <c r="AC22" s="18"/>
       <c r="AD22" s="18"/>
       <c r="AE22" s="18"/>
-      <c r="AG22" s="22"/>
-      <c r="BI22" s="28"/>
-    </row>
-    <row r="23" s="1" customFormat="true" ht="12" customHeight="true" spans="1:61">
+    </row>
+    <row r="23" s="1" customFormat="true" ht="12" customHeight="true" spans="1:31">
       <c r="A23" s="8"/>
       <c r="B23" s="6"/>
       <c r="C23" s="9" t="s">
@@ -2431,10 +2241,8 @@
       <c r="AC23" s="18"/>
       <c r="AD23" s="18"/>
       <c r="AE23" s="18"/>
-      <c r="AG23" s="22"/>
-      <c r="BI23" s="28"/>
-    </row>
-    <row r="24" s="1" customFormat="true" ht="12" customHeight="true" spans="1:61">
+    </row>
+    <row r="24" s="1" customFormat="true" ht="12" customHeight="true" spans="1:31">
       <c r="A24" s="8"/>
       <c r="B24" s="6"/>
       <c r="C24" s="9" t="s">
@@ -2468,10 +2276,8 @@
       <c r="AC24" s="18"/>
       <c r="AD24" s="18"/>
       <c r="AE24" s="18"/>
-      <c r="AG24" s="22"/>
-      <c r="BI24" s="28"/>
-    </row>
-    <row r="25" s="1" customFormat="true" ht="12" customHeight="true" spans="1:61">
+    </row>
+    <row r="25" s="1" customFormat="true" ht="12" customHeight="true" spans="1:31">
       <c r="A25" s="8"/>
       <c r="B25" s="6"/>
       <c r="C25" s="9" t="s">
@@ -2505,10 +2311,8 @@
       <c r="AC25" s="18"/>
       <c r="AD25" s="18"/>
       <c r="AE25" s="18"/>
-      <c r="AG25" s="22"/>
-      <c r="BI25" s="28"/>
-    </row>
-    <row r="26" s="1" customFormat="true" customHeight="true" spans="1:61">
+    </row>
+    <row r="26" s="1" customFormat="true" customHeight="true" spans="1:31">
       <c r="A26" s="11"/>
       <c r="B26" s="10"/>
       <c r="C26" s="9" t="s">
@@ -2556,35 +2360,6 @@
       <c r="AC26" s="18"/>
       <c r="AD26" s="18"/>
       <c r="AE26" s="18"/>
-      <c r="AG26" s="23"/>
-      <c r="AH26" s="24"/>
-      <c r="AI26" s="24"/>
-      <c r="AJ26" s="24"/>
-      <c r="AK26" s="24"/>
-      <c r="AL26" s="24"/>
-      <c r="AM26" s="24"/>
-      <c r="AN26" s="24"/>
-      <c r="AO26" s="24"/>
-      <c r="AP26" s="24"/>
-      <c r="AQ26" s="24"/>
-      <c r="AR26" s="25"/>
-      <c r="AS26" s="26"/>
-      <c r="AT26" s="26"/>
-      <c r="AU26" s="24"/>
-      <c r="AV26" s="24"/>
-      <c r="AW26" s="24"/>
-      <c r="AX26" s="24"/>
-      <c r="AY26" s="24"/>
-      <c r="AZ26" s="24"/>
-      <c r="BA26" s="24"/>
-      <c r="BB26" s="24"/>
-      <c r="BC26" s="24"/>
-      <c r="BD26" s="24"/>
-      <c r="BE26" s="24"/>
-      <c r="BF26" s="24"/>
-      <c r="BG26" s="24"/>
-      <c r="BH26" s="24"/>
-      <c r="BI26" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="4">
